--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3850015.57070835</v>
+        <v>3848127.989191949</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7847072.791749493</v>
+        <v>7847072.791749494</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>121.1156257058473</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.6679898432817</v>
       </c>
     </row>
     <row r="3">
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>99.90187484148926</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>127.5565426393534</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>62.14019644329944</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544604</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>127.717802721146</v>
       </c>
       <c r="X13" t="n">
-        <v>122.6700682149381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4552226741777</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.315822205651</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>3.633341602776227</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>158.3917916061206</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>173.4405054918799</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.61035505917187</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>42.20569823125625</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.99894609865717</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3910,13 +3910,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,37 +4492,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>597.8010803716834</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.991915879943</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.991915879943</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1550.991915879943</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1165.203663281699</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>754.2177584920914</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>336.2539503902783</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.3850306156814</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>516.4225136752698</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>516.4225136752698</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>130.6342610770255</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177358</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036449</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036449</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186809</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186809</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916695</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655615</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679803</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036449</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.060406649891</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,19 +5054,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.490963332889</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049821</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4381409926464</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102533</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1263.932007306659</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1043.139428163129</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247859</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383441</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324572</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W16" t="n">
-        <v>208.7516828383384</v>
+        <v>241.9805482336707</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>714.9354044297404</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317231</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>245.1301850426792</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6239,19 +6239,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>284.1174986139254</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>284.1174986139253</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441651</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,46 +6446,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.65782292164</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049862</v>
+        <v>439.5324299542195</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584497</v>
+        <v>326.3571123076835</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274846</v>
+        <v>232.0013381767185</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264623</v>
+        <v>139.8491098756962</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>139.8491098756962</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365246</v>
+        <v>730.4517433652478</v>
       </c>
       <c r="Y31" t="n">
-        <v>659.7457372049862</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6707,28 +6707,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,22 +6780,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6865,7 +6865,7 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,10 +6932,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514088</v>
@@ -6944,10 +6944,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6956,25 +6956,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7020,13 +7020,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,16 +7163,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7655,10 +7655,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>559.3999450277965</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270186</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951775</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>253.7371603504735</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>28.12263706263059</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103788</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>20.63789864135396</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10668,16 +10668,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504733</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775543</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>148.274714356655</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>158.805195615445</v>
       </c>
       <c r="X13" t="n">
-        <v>103.0395871740991</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>77.06777566241331</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338616</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>282.8896567338148</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>128.1312067304704</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.0824928447111</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0051179590405</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356418</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.3824506248806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685514.402550559</v>
+        <v>685514.4025505591</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.760514761</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147611</v>
-      </c>
       <c r="J2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887492</v>
+        <v>752620.954088749</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="M2" t="n">
         <v>759463.6371244614</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244615</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244614</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.846656682071625e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563555</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275951</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275953</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275956</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-70138.27840471434</v>
       </c>
       <c r="C6" t="n">
-        <v>519829.6008098301</v>
+        <v>519829.6008098302</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098301</v>
+        <v>519829.6008098304</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846771016</v>
+        <v>91113.26934173716</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.7649446055</v>
+        <v>616273.305818634</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446055</v>
+        <v>616273.3058186335</v>
       </c>
       <c r="H6" t="n">
-        <v>616370.7649446053</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.7649446053</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.5457520125</v>
+        <v>439850.0866260406</v>
       </c>
       <c r="K6" t="n">
-        <v>578619.8481200454</v>
+        <v>578601.3543821105</v>
       </c>
       <c r="L6" t="n">
-        <v>613941.1676408094</v>
+        <v>613941.1676408098</v>
       </c>
       <c r="M6" t="n">
-        <v>489483.0592078392</v>
+        <v>489483.0592078391</v>
       </c>
       <c r="N6" t="n">
-        <v>624284.0744416761</v>
+        <v>624284.0744416768</v>
       </c>
       <c r="O6" t="n">
-        <v>624284.0744416771</v>
+        <v>624284.0744416765</v>
       </c>
       <c r="P6" t="n">
-        <v>580121.4691388315</v>
+        <v>580121.4691388307</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541004</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,13 +26814,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>248.6154749726217</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>55.56994881277188</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>112.2436641085296</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>196.3662301250037</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.4663446304625</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>344.735849298412</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831818</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>586.9317337484864</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,16 +35735,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>235.2160519941552</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>451.7807101798181</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>233.248164095453</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>269.8956035973783</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37388,16 +37388,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315248</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109124</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>564.1615374009397</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>343.3468637082218</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109124</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>298.8501529445943</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
